--- a/반은숙/HD요청부품.xlsx
+++ b/반은숙/HD요청부품.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\hd_stock\반은숙\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11798"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="HD요청부품" sheetId="1" r:id="rId1"/>
@@ -2315,19 +2315,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.4375" customWidth="1"/>
-    <col min="2" max="2" width="20.5625" customWidth="1"/>
-    <col min="3" max="3" width="16.4375" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="14.4140625" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>

--- a/반은숙/HD요청부품.xlsx
+++ b/반은숙/HD요청부품.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="HD요청부품" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2316,7 +2316,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
